--- a/biology/Biologie cellulaire et moléculaire/CXCL14/CXCL14.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/CXCL14/CXCL14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CXCL14 (ou BRAK) est une chimiokine dont le gène est situé sur le chromosome 5 humain.
 </t>
@@ -511,9 +523,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a un rôle variable sur les cancers. Ainsi, dans le cancer de la prostate, il joue le rôle d'un gène suppresseur de tumeur[5], de même dans les cancers ORL[6]. Au contraire, il facilite la prolifération des cancers du sein[7], de la thyroïde[8], du pancréas[9] ou du côlon[10]. Dans l'ostéosarcome, son expression est stimulée par l'IRX1 facilitant la formation de métastases[11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a un rôle variable sur les cancers. Ainsi, dans le cancer de la prostate, il joue le rôle d'un gène suppresseur de tumeur, de même dans les cancers ORL. Au contraire, il facilite la prolifération des cancers du sein, de la thyroïde, du pancréas ou du côlon. Dans l'ostéosarcome, son expression est stimulée par l'IRX1 facilitant la formation de métastases.
 </t>
         </is>
       </c>
